--- a/ssp_modeling/cb/cb_cost_factors/cb_config_params.xlsx
+++ b/ssp_modeling/cb/cb_cost_factors/cb_config_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianfuentes/git/ssp_uganda_data/ssp_modeling/cb/cb_cost_factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94F8C5A-9725-C048-B2D5-0DA8B70844D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946CE2F9-1745-BB47-B535-5A2E056ED382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-7260" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tx_table" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,20 @@
     <sheet name="attribute_dim_time_period" sheetId="16" r:id="rId16"/>
     <sheet name="attribute_transformation_code" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6581,9 +6594,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A155" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -16332,8 +16348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18926,79 +18942,79 @@
         <v>706</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C69">
-        <v>-5.2</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G69" t="b">
+      <c r="G69" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C70">
-        <v>-0.17</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C70" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G70" t="b">
+      <c r="G70" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="3" t="s">
         <v>706</v>
       </c>
     </row>
@@ -22435,7 +22451,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B36" sqref="B36"/>

--- a/ssp_modeling/cb/cb_cost_factors/cb_config_params.xlsx
+++ b/ssp_modeling/cb/cb_cost_factors/cb_config_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianfuentes/git/ssp_uganda_data/ssp_modeling/cb/cb_cost_factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946CE2F9-1745-BB47-B535-5A2E056ED382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FF8D9-FE59-144B-AC42-03C26E16E16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-720" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tx_table" sheetId="1" r:id="rId1"/>
@@ -6594,11 +6594,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -10166,9 +10176,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -10487,9 +10504,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -10610,9 +10634,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -10703,9 +10734,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -11012,9 +11050,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -11256,9 +11301,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -14958,9 +15011,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -15267,9 +15327,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -16348,14 +16416,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -22450,11 +22525,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22462,9 +22538,10 @@
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="8" max="8" width="84.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" bestFit="1" customWidth="1"/>
@@ -24829,9 +24906,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="186" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -25046,9 +25131,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -25389,9 +25481,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -25698,9 +25797,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -25935,9 +26041,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -26108,9 +26224,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
